--- a/apisavelink/DSLINK.xlsx
+++ b/apisavelink/DSLINK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pktuy\Downloads\PKTUY\GITHUB\savelink\autosavelink\apisavelink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB2B0E8D-EBEA-4222-AC1A-32C66FDF336A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B4F4BA1B-1875-465A-836D-6CE513EFC376}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" xr2:uid="{9B87A1FF-2EEE-48D7-8B52-932DED2CA4ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1627">
   <si>
     <t xml:space="preserve">http://thaimeo.info </t>
   </si>
@@ -3421,6 +3421,1491 @@
   </si>
   <si>
     <t xml:space="preserve">https://mahwifexxx.tumblr.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mongodb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.mongodb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mongoc.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mongodb.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mongodb.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.atlas.mongodb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.cloudmanager.mongodb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.opsmanager.mongodb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://university.mongodb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://support.microsoft.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mongodb.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://slackpass.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.upwork.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://electriccar.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://muaxegiatot.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xehay.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://autodaily.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.mozilla.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://msdn.microsoft.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://s27.pixxxels.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pivot.one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thebestcuong.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://anh4.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.anh4.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ilbe.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mmo4me.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tools.digitalpoint.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mmo4me.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://url.ahaclip.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xenforo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://theplus.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xuongingiare.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cenland.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vicion.app </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thanhpro.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kplus.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ad.kplus.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://careers.kplus.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://english.vtv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vtv.gov.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vtv6.vtv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vtv8.vtv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tapchitruyenhinh.vtv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vfc.vtv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tvad.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://daotao.vtv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vtvbroadcom.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ctv.vtv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vtvcab.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.kplus.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sctv.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://linkhay.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://linkhay.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://24h.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://news.zing.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://congan.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://m.cafebiz.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thanhnien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dantri.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vnexpress.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://m.soha.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://video.kenh14.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://t.me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://m.kenh14.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://blog.linkhay.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://api.linkhay.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://muare.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sohagame.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://solo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://solo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vccorp.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wepay.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vneconomy.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nld.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.autopro.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://muachung.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sohapay.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sannhac.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://game.soha.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://autopro.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://f319.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://enbac.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://rongbay.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://biz.cafef.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ming.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://socnhi.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tv.soha.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vccloud.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://admatic.admicro.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.techonthenet.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dzone.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3resource.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.oracletutorial.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://chat.stackoverflow.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://meta.stackoverflow.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sqlfiddle.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://astronomy.stackexchange.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://retrocomputing.stackexchange.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ss64.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oreilly.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gerardnico.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lh5.googleusercontent.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://business.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.akadia.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://infolab.stanford.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://it.toolbox.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://192.168.177.102:7778 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.techcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tracuubaolanh.techcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ib.techcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://techcombankjobs.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vincity.techcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bidv.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bidv.vn:81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bidv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ebank.bidv.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bidv.vn:82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://intranet.bidv.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://card.bidv.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://phatmai.bidv.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bidv.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://bsc.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vrbank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bic.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.valc.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://viwaco.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hoadon.viwaco.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://momo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://viettelpay.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.payoo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vietinbank.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pvcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eximbank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hdbank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.msb.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tpb.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.scb.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.acb.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lienvietpostbank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://o7planning.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://viblo.asia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vnsys.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://paginaswebpublicidad.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jivesoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://reaonline.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://simpleprogrammer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pixshare.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://old.reddit.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://quan-cam.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeaholicguy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://kysubrse.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://giangnh.me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mquy.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://imlinh.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trietphm.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hieuk09.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://runikitkat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hieuhtr.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hqc.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ndaidong.xyz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sfzxc.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nguyenquangminh0711.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://huydx.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://devnhanguoita.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://manhdaovan.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://laptrinhcuocsong.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ehkoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.giaithuatlaptrinh.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://completejavascript.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vcostudy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jaredchu.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://199.230.109.118:8080 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://about.reddit.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.redditblog.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddithelp.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://redditgifts.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://toidicodedao.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://blog.botbie.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vcostudy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://namluu.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://coding4food.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.botbie.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jekyllrb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physicsworld.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://botbie.slack.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://slack.botbie.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kimkha.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://linuxfromscratch.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://panasonic.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vcostudy.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://clfs.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.linuxfromscratch.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wiki.linuxfromscratch.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tools.ietf.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://staticky.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lazi.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.panasonic.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://panasonic.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ec-club.panasonic.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://club.panasonic.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://panasonic.co.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://club.panasonic.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://askpc.panasonic.co.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://askpc.panasonic.co.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sumai.panasonic.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ps-hp.jpn.panasonic.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.panasonic.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bnc.lt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.ca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.jm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.za </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.ke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.uk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fr.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.gr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.pt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.es </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.cz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.se </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.ie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tr.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.pl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.ro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.ru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.ua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.hu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fi.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dk.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.al </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.au </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.nz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.hk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.bd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.kr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.my.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.pk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.ph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.sg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.co.th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vn.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.ar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.br.freelancer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.cl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.co </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.ec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.mx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.com.pe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freelancer.uy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gnu.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sourceware.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sourceware.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://source.android.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.khronos.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jvcref.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://address_input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.raspberrypi.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://click.advertnative.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hoaquataynguyen.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://blogcaycanh.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://lamcanh.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dienhoahiendai.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://noithatanhung.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://see.stanford.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.codeman.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nguyennamdsn.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://truongptk30a3.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://laptrinhcuocsong.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://buivannguyen.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://niviki.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.giaosucan.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://instagram.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://science-technology.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hoitho.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thienvien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thienviet.edu.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hocvienthienviet.edu.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gaolut.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ngoithiendungcach.blogspot.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.tindich.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gaolut.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pinterest.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.barefootbeginnings.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xanhkhoe.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.blogtranthanh.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://capayoga.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://firmasite.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vn.linkedin.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.udemy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://luyendoctienganh.niviki.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://feedburner.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vn.linkedin.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://themexpose.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.freedesignresource.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.flaticon.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cv.codeaholicguy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://lypic.codeaholicguy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://language.codeaholicguy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeaholicguy.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://example43656.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://keodaicuocyeu.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://123doc.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.italki.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://oliveremberton.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jamesaltucher.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.becomingminimalist.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.theminimalists.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ilovepdf.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://smallpdf.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pdf2go.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sodapdf.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pdf.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pdfcandy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sejda.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webmerge.me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acrobat.adobe.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pdfresizer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://online.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://forums.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thuthuat.taimienphi.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fixedbyvonnie.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://forums.planetpdf.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://developers.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://help.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tickets.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://languages.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.foxitsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://taimienphi.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tmo.taimienphi.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://9mobi.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.tcm.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rottentomatoes.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gardeningknowhow.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://garden.lovetoknow.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kobo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://posts.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.devx.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vertabelo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://books.google.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webtretho.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vtc.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vietgiaitri.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://kenhsao.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tinhot247.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://video2.dkn.tv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://2sao.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://baoquangninh.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vietbao.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://newshop.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.generali-life.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.nhipcaudautu.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://c.eclick.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.doji.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trueman.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.arduiniana.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://maps.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gpsvisualizer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://giadinhup.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://giadinhup.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.babla.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://pasal.edu.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://elight.edu.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vforum.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vi.glosbe.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kenhtuyensinh.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tienganh123.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://x3english.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vn.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lingohut.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vi.speaklanguages.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hoctienganh.net.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forum.duolingo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.50languages.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://aroma.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vietjack.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://truyenhinhnghean.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hellochao.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vi.wiktionary.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://giasutoeic.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hellochao.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://about.hellochao.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://als.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://an.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://br.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://se.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fo.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sw.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ht.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ce.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qu.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wa.wikipedia.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://bongdaplus.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ictnews.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://kynguyenso.plo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.gyazo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://softwareengineeringdaily.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://coding4food.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cuoilennaocacban2.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.health.havard.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.health.harvard.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gocoffeego.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unghotoi.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thachpham.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wpbasics.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://malwaredecoder.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://code.visualstudio.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://about.phamvanlam.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dichvuthuctap.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phamvanlam.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thuattoan.phamvanlam.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://spiderum.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://engineering.vtvcab.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://microservices.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://khachuong.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://helino.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://video.thanhnien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thethao.thanhnien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://game.thanhnien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xe.thanhnien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://video.thanhnien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datbao.thanhnien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://quangcao.thanhnien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://M%E1%BB%A1_%E1%BB%9F_b%E1%BB%A5ng_v%C3%A0_hai_b%C3%AAn_h%C3%B4ng_s%E1%BA%BD_bi%E1%BA%BFn_m%E1%BA%A5t_ch%E1%BB%89_trong_3_ng%C3%A0y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://N%E1%BA%BFp_nh%C4%83n_b%E1%BB%8Dng_m%E1%BA%AFt_v%C3%A0_qu%E1%BA%A7ng_th%C3%A2m_s%E1%BA%BD_bi%E1%BA%BFn_m%E1%BA%A5t_trong_v%C3%B2ng_20_ph%C3%BAt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://electricitysavingbox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ambientdigitalgroup.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.boston.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.synecticsworld.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.georgemprince.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://chartio.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.arungudelli.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thepolyglotdeveloper.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sqlcourse.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.plsqlinformation.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://parenting.stackexchange.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dataschool.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.chartio.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.g2crowd.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://support.chartio.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ti.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blogtruyen69.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bellard.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ffmpeg.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.itu.int </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ffmpeg.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://5xublog.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tuancongthuphong.blogspot.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hocthenao.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.stallman.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stallman.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nghiencuuquocte.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nghiencuulichsu.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.joelonsoftware.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://planet.kernel.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mjg59.dreamwidth.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lkml.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://lkml.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.procul.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.guru99.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tutorialspoint.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://alvaro-videla.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.manning.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://toidicodedao.files.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://security.toidicodedao.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hoclaptrinh.toidicodedao.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://conanak99.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://whos.amung.us </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://myclass.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://azurevn.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gramy.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://yellowcodebooks.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vhnam.github.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://niviki.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jusfunny.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://giaosucan.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cuongquach.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dammio.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://toidicodedao.wordpress.com </t>
   </si>
 </sst>
 </file>
@@ -3772,10 +5257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E127D0-132B-4678-922B-63B19FB591CE}">
-  <dimension ref="A1:A1132"/>
+  <dimension ref="A1:A1627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A1470" workbookViewId="0">
+      <selection activeCell="F1484" sqref="F1484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9443,6 +10928,2481 @@
         <v>1131</v>
       </c>
     </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1492" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1493" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1494" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1495" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1496" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1497" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1498" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1499" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1500" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1501" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1502" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1503" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1504" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1505" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1506" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1510" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1511" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1512" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1513" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>1626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/apisavelink/DSLINK.xlsx
+++ b/apisavelink/DSLINK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pktuy\Downloads\PKTUY\GITHUB\savelink\autosavelink\apisavelink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B4F4BA1B-1875-465A-836D-6CE513EFC376}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0516697-24E8-4D7F-959D-FB02399051A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" xr2:uid="{9B87A1FF-2EEE-48D7-8B52-932DED2CA4ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1803">
   <si>
     <t xml:space="preserve">http://thaimeo.info </t>
   </si>
@@ -4906,6 +4906,534 @@
   </si>
   <si>
     <t xml:space="preserve">https://toidicodedao.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://quocluat.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://techmaster.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://timo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://antoanthongtin.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.publicbank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://securitydaily.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.techrum.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blogtienao.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://my.timo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://timo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kriesi.at </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.techtalk.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://meetup.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.xx.fbcdn.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en-gb.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zh-tw.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ko-kr.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ja-jp.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr-fr.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://th-th.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://es-la.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pt-br.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de-de.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://it-it.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://messenger.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.facebook.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://career.vng.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vng.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://me.zing.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trituenhantao.info </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thongbaotenmien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tiki.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hotel.tiki.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hotro.tiki.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://quay.tiki.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hotro.tiki.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tuyendung.tiki.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://zalo.me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://giphy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://stardict-4.sourceforge.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nodejs.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lpdevs.herokuapp.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sourceforge.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.7-zip.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vticorp.co.jp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://isocpp.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://marketplace.visualstudio.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://quokkajs.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeburst.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shopify.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://jd.benow.ca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.javadecompilers.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.benf.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bitbucket.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kme.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://kme.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://toplist.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://banlinhkien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://chotroihn.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mualinhkien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mualinhkien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://linhkienbandan.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://linhkienhanoi.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dientucongsuat.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://banlinhkien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hocdientu.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://minhhagroup.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://linhkienhang.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://choimohinh.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mcavn.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ledminhha.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://banlinhkien.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://linhkiencnc.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://makerbox.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sanphamsmarthome.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.online.gov.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dientuvietnam.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hobid.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thecolumbiapartnership.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gmdu.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lede9205.en.china.cn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wattpad.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://store.rpc.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ic-vn.com%3B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.thegioilinhkiendientu.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.tme.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vbulletin.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.freeonlineusers.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://support.cloudflare.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cloudflare.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://andongltd.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopee.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trangvangvietnam.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yellowpages.vnn.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.banlinhkien.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://chotroihn.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://chotroihn.vn@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sapo.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dientubkh.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bizweb.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://media.bizwebmedia.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://webdien.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dientugiatot.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tuca.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oto-hui.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cungchoinhac.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vntelecom.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vn.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vn.mail.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sports.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://games.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vn.mobile.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vn.everything.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vn.messenger.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sg.news.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://login.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://help.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://yahoo.uservoice.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ar.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://au.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://br.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ca.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://in.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://id.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://it.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://malaysia.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mx.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nz.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ph.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qc.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sg.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tw.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hk.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://es.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://th.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://espanol.answers.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://yahooanswersvn.tumblr.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vn.antoan.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://info.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://info.yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.esnips.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.prokits.com.tw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.computenext.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ibm.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://codeforlifedotblog.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.unix.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.remote-dba.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dbaforums.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dba-sql-server.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.rampant-books.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ion-dba.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.excel-db.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://donburleson.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dbaforums.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.conversational.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://meta.serverfault.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://history.stackexchange.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://outdoors.stackexchange.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://blog.serverfault.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.enterprisedb.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://searchoracle.techtarget.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://psoug.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.oracle-wiki.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://logicalread.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thuonggiado.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://yeumaybay.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cuuam.gosu.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vietnamairlines.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://diachiso.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thuonggiado.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.picodi.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hpthotnews.wordpress.com </t>
   </si>
 </sst>
 </file>
@@ -5257,10 +5785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E127D0-132B-4678-922B-63B19FB591CE}">
-  <dimension ref="A1:A1627"/>
+  <dimension ref="A1:A1803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1470" workbookViewId="0">
-      <selection activeCell="F1484" sqref="F1484"/>
+    <sheetView tabSelected="1" topLeftCell="A1987" workbookViewId="0">
+      <selection activeCell="E2069" sqref="E2069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13403,6 +13931,886 @@
         <v>1626</v>
       </c>
     </row>
+    <row r="1628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1695" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1696" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1697" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1698" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1699" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1700" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1703" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1704" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1705" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1752" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1753" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1754" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1755" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1756" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1757" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1758" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1761" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1762" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1763" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1764" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1766" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1767" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1768" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1782" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1783" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1789" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1790" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1791" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1798" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1799" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1800" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>1802</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/apisavelink/DSLINK.xlsx
+++ b/apisavelink/DSLINK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pktuy\Downloads\PKTUY\GITHUB\savelink\autosavelink\apisavelink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0516697-24E8-4D7F-959D-FB02399051A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0CD8541E-E222-4791-A824-9AB5AF6A1419}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" xr2:uid="{9B87A1FF-2EEE-48D7-8B52-932DED2CA4ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1942">
   <si>
     <t xml:space="preserve">http://thaimeo.info </t>
   </si>
@@ -5434,6 +5434,423 @@
   </si>
   <si>
     <t xml:space="preserve">https://hpthotnews.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bbc.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://voh.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://laodong.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nhandan.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vietnamnet.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.autismspectrum.org.au </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sur.ly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tukyonline.com.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tukyonline.wapgem.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://website.informer.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://code.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.intodns.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dinhat.online.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://chieclaban.com.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ancan365.com.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trituenhantao.info.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vicotax.com.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stopchompandroll.com.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://khangnguyenfarm.com.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assetsummit.com.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://belinski.info.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://devenireuropeo.com.cutestat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.clearwebstats.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.sap.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dba.stackexchange.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://space.stackexchange.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.usingenglish.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gizmodo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.differencebetween.info </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.karmawifi.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gadgetsnow.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cellphones.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://englishteststore.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://englishteststore.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rung.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://toomva.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dictionary.cambridge.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.hocexcel.online </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hsbc.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dulieu.tailieuhoctap.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.academia.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.quangngai.gov.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hr-services.vstv.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3schools.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://helpdoco.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.morganslibrary.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.bmc.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://communities.bmc.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://watch.bmc.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://newsroom.bmc.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bmcsites.force.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://webreg.bmc.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.k15t.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mkyong.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tygpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mysql.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dev.mysql.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.trikhantieng.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.clickone.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mediafire.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://arjudba.blogspot.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://forums.oracle.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://codeplex8.rssing.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.developerit.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hivmr.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://1tudien.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.informatik.uni-leipzig.de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://translate.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.twitter.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://maps.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://news.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://googletranslate.blogspot.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vietcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vietcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vietcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vietcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mail.vietcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doc.vietcombank.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vcbf.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vcbf.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://192.168.177.101:7778 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.skysports.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.horseracingnation.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.racenet.com.au </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.irishracing.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://supertote.mu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://practicalpunting.com.au </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://matthiashoys.wordpress.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://modern-sql.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://bkintsiful.blogspot.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.java2s.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thatsmycode.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sitecore.stackexchange.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nld.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bidvsmartbanking.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bsc.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://crontab.guru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://alvinalexander.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.crontabgenerator.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cyberciti.biz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linuxquestions.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cronitor.io </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://kbhr.co </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linux.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://goo.gl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://eepurl.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://devdaily.us1.list-manage.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://m.alvinalexander.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.onemansalaska.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.howisoldmybusiness.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.alaskasquirrel.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.marry.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hanam.gov.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thutuchanhchinh.phuyen.gov.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tcdcpl.moj.gov.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://danluat.thuvienphapluat.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.marrybaby.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.marryliving.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bepgiadinh.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://adserver.ringier.com.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://luatvietan.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vn.usembassy.gov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trangtinphapluat.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://webtretho.hub.loginradius.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://webtretho.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tv.webtretho.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://zaodich.webtretho.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://business.webtretho.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://privacy.as.criteo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cat.hk.as.criteo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lilypie.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://zaodich.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tinhte.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.5giay.vn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mgod.webtretho.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://feeds.feedburner.com </t>
   </si>
 </sst>
 </file>
@@ -5785,10 +6202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E127D0-132B-4678-922B-63B19FB591CE}">
-  <dimension ref="A1:A1803"/>
+  <dimension ref="A1:A1942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1987" workbookViewId="0">
-      <selection activeCell="E2069" sqref="E2069"/>
+    <sheetView tabSelected="1" topLeftCell="A2068" workbookViewId="0">
+      <selection activeCell="F2078" sqref="F2078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14811,6 +15228,701 @@
         <v>1802</v>
       </c>
     </row>
+    <row r="1804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1816" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1817" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1818" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1820" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1821" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1822" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1824" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1825" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1826" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1827" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1828" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1829" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1830" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1831" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1832" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1833" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1834" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1835" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1836" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1837" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1838" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1839" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1840" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1841" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1842" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1843" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1844" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1845" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1846" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1847" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1848" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1849" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1850" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1851" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1852" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1853" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1854" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1855" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1856" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1857" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1858" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1859" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1860" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1861" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1862" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1863" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1864" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1865" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1866" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1867" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1868" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1869" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1870" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1871" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1873" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1874" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1875" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1876" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1877" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1879" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1880" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1881" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1882" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1883" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1884" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1885" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1886" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1887" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1888" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1889" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1890" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1892" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1894" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1895" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1896" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1897" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1898" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1899" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1900" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1901" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1902" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1903" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1904" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1905" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1906" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1907" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1908" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1910" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1911" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1912" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1913" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1914" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1915" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1916" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1917" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1918" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1919" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1920" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1921" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1922" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1923" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1924" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1925" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1926" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1927" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1929" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1930" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1931" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1932" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1933" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1934" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1935" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1936" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1937" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1938" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1939" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1940" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1941" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1942" t="s">
+        <v>1941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
